--- a/ResultadoEleicoesDistritos/R. A. AÇORES_VILA FRANCA DO CAMPO.xlsx
+++ b/ResultadoEleicoesDistritos/R. A. AÇORES_VILA FRANCA DO CAMPO.xlsx
@@ -597,64 +597,64 @@
         <v>3159</v>
       </c>
       <c r="H2" t="n">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="I2" t="n">
-        <v>296</v>
+        <v>314</v>
       </c>
       <c r="J2" t="n">
-        <v>1282</v>
+        <v>1276</v>
       </c>
       <c r="K2" t="n">
         <v>7</v>
       </c>
       <c r="L2" t="n">
-        <v>373</v>
+        <v>345</v>
       </c>
       <c r="M2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N2" t="n">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q2" t="n">
         <v>4</v>
       </c>
       <c r="R2" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="S2" t="n">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="T2" t="n">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="U2" t="n">
+        <v>11</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2007</v>
+      </c>
+      <c r="W2" t="n">
+        <v>2</v>
+      </c>
+      <c r="X2" t="n">
+        <v>2103</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA2" t="n">
         <v>14</v>
-      </c>
-      <c r="V2" t="n">
-        <v>2053</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X2" t="n">
-        <v>2001</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>44</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
